--- a/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_26.07.24_output.xlsx
+++ b/docs/PTA3a_ADDC_30_1d5/PTA3a_ADDC_30_1d5_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700575.6263652</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700575.9365768</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700575.6263652.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700575.9365768.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>3130.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>3131.3</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-1.100000000000364</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700575.9744751</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700576.3205218</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700575.9744751.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700576.3205218.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>3130.6</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>3127.65</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-2.949999999999818</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700576.395705</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700576.509481</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700576.395705.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700576.509481.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>3125.45</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>3127.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.850000000000364</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700576.62317</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731700576.8136609</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700576.62317.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700576.8136609.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>3125.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>3126.45</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.9499999999998181</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700576.9204307</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700577.0600567</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700576.9204307.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.0600567.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>3126.95</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>3126.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.6499999999996362</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700577.1258812</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700577.2415438</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.1258812.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.2415438.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>3126</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>3128.15</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2.150000000000091</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700577.2555342</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700577.624544</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.2555342.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.624544.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>3128.15</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>3132.55</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-4.400000000000091</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700577.6634486</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700577.7292666</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.6634486.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.7292666.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>3134.95</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>3132.85</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>2.099999999999909</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700577.8459551</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700577.983591</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.8459551.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.983591.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>3134.95</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>3129.05</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>5.899999999999636</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700577.9975371</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700578.1850479</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700577.9975371.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700578.1850479.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>3129.05</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>3132.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>3.349999999999909</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700578.4762688</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700578.6607482</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700578.4762688.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700578.6607482.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>3100.75</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>3117.95</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>17.19999999999982</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700579.1993086</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700579.6132283</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700579.1993086.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700579.6132283.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>3089.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>3086</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-3.599999999999909</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700579.7757657</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700579.9153938</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700579.7757657.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700579.9153938.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>3091.65</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>3076.9</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>14.75</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700579.9293563</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700580.231548</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700579.9293563.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700580.231548.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>3076.9</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>3066</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-10.90000000000009</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700580.448966</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700580.591585</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700580.448966.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700580.591585.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>3049.05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>3058.95</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>9.899999999999636</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700580.7084448</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700580.8510633</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700580.7084448.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700580.8510633.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>3059.7</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>3061.25</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.550000000000182</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700580.9148924</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731700581.0056765</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700580.9148924.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700581.0056765.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>3068.95</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>3057.25</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>11.69999999999982</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731700581.2011402</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731700581.4086144</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700581.2011402.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700581.4086144.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>3070.45</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>3068</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>2.449999999999818</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731700581.4495058</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731700581.542258</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700581.4495058.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700581.542258.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>3065</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>3070.05</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>5.050000000000182</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731700581.709838</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731700581.7507002</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700581.709838.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700581.7507002.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>3067</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>3070.85</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>3.849999999999909</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731700581.8205414</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731700581.9621341</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700581.8205414.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700581.9621341.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>3072.9</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>3072.05</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.8499999999999091</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731700582.0030246</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731700582.0688486</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700582.0030246.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700582.0688486.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>3069.1</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>3075.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>6.400000000000091</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731700582.159606</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731700582.478942</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700582.159606.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700582.478942.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>3075.7</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>3082.1</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-6.400000000000091</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731700582.5457635</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731700582.5876513</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700582.5457635.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700582.5876513.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>3080.45</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>3085</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>4.550000000000182</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731700582.6026115</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731700582.8280144</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700582.6026115.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700582.8280144.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>3085</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>3083.1</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.900000000000091</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731700582.8698962</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731700583.0414734</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700582.8698962.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700583.0414734.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>3078.15</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>3080</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.849999999999909</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731700583.1860795</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731700583.6308613</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700583.1860795.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700583.6308613.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>3080</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>3079.55</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.4499999999998181</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1943,51 +2121,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731700583.6727493</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731700584.0288255</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700583.6727493.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700584.0288255.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>3076.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>3077.1</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.5</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1995,51 +2179,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731700584.2003384</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731700584.243224</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700584.2003384.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700584.243224.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>3081.25</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>3073.55</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>7.699999999999818</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2047,44 +2237,50 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>MXI</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>MXI</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731700584.258184</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700584.258184.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700584.258184.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>3073.55</v>
       </c>
-      <c r="J32" t="n">
-        <v>3073.55</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3065.9</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-7.650000000000091</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -2145,19 +2341,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.14999999999782</v>
+        <v>67.49999999999773</v>
       </c>
       <c r="C2" t="n">
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>2.504999999999927</v>
+        <v>2.249999999999924</v>
       </c>
       <c r="E2" t="n">
-        <v>2.44</v>
+        <v>2.19</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
